--- a/Study 4/Models_link/Sets/Variables.xlsx
+++ b/Study 4/Models_link/Sets/Variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM-COMPACT\Models_link\Sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 4\Models_link\Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC24C95-20F2-4BB2-BDF8-1E1FE89DEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED50243-A172-429F-AD48-1F9E389E72CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCAM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="366">
   <si>
     <t>Secondary Energy|Gases</t>
   </si>
@@ -1131,6 +1131,9 @@
   </si>
   <si>
     <t>Imports|Steel</t>
+  </si>
+  <si>
+    <t>Production|Steel|EAF_scrap</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1506,7 @@
   <dimension ref="A1:B454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1645,7 @@
         <v>357</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1653,7 @@
         <v>358</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
